--- a/input_data/admin_data/CHL/gpinter_CHL_2007.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2007.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>year</t>
   </si>
@@ -201,6 +201,39 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -387,10 +420,76 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -635,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J73"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -643,31 +742,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
@@ -675,31 +774,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D2">
-        <v>936786.30398524203</v>
+        <v>1795294.5108248401</v>
       </c>
       <c r="E2">
-        <v>0.66000000000000003</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2">
-        <v>21627.290847234501</v>
+        <v>38680.863243133099</v>
       </c>
       <c r="G2">
-        <v>0.99994663776781001</v>
+        <v>0.99990217164453798</v>
       </c>
       <c r="H2">
-        <v>2755106.8087558099</v>
+        <v>3989153.0669228402</v>
       </c>
       <c r="I2">
-        <v>46029.696609590297</v>
+        <v>60872.125428838197</v>
       </c>
       <c r="J2">
-        <v>127.390287956853</v>
+        <v>103.129887299788</v>
       </c>
     </row>
     <row r="3">
@@ -707,29 +806,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.67000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F3">
-        <v>71140.808726920804</v>
+        <v>83541.852064580002</v>
       </c>
       <c r="G3">
-        <v>0.99945528027876696</v>
+        <v>0.99956310679995797</v>
       </c>
       <c r="H3">
-        <v>2837200.05457843</v>
+        <v>4078432.17922953</v>
       </c>
       <c r="I3">
-        <v>97721.657318274505</v>
+        <v>107192.567592155</v>
       </c>
       <c r="J3">
-        <v>39.881470359287398</v>
+        <v>48.819029964487697</v>
       </c>
     </row>
     <row r="4">
@@ -737,29 +836,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.68000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F4">
-        <v>125064.213490393</v>
+        <v>131345.99247559399</v>
       </c>
       <c r="G4">
-        <v>0.99841212180278904</v>
+        <v>0.99896603168528597</v>
       </c>
       <c r="H4">
-        <v>2922808.7544928002</v>
+        <v>4170786.5888024899</v>
       </c>
       <c r="I4">
-        <v>153985.93105161999</v>
+        <v>156529.818867542</v>
       </c>
       <c r="J4">
-        <v>23.3704644431905</v>
+        <v>31.754197522071301</v>
       </c>
     </row>
     <row r="5">
@@ -767,29 +866,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F5">
-        <v>183725.802288048</v>
+        <v>182241.52079896201</v>
       </c>
       <c r="G5">
-        <v>0.99676835384422102</v>
+        <v>0.99809414232159799</v>
       </c>
       <c r="H5">
-        <v>3012125.6197651001</v>
+        <v>4266364.1309438003</v>
       </c>
       <c r="I5">
-        <v>215161.25352975001</v>
+        <v>209034.869185927</v>
       </c>
       <c r="J5">
-        <v>16.394679365953401</v>
+        <v>23.4104945582088</v>
       </c>
     </row>
     <row r="6">
@@ -797,29 +896,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.69999999999999996</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F6">
-        <v>247474.847565231</v>
+        <v>236382.168554706</v>
       </c>
       <c r="G6">
-        <v>0.99447155197367199</v>
+        <v>0.99692979369843004</v>
       </c>
       <c r="H6">
-        <v>3105357.76530628</v>
+        <v>4365323.3812305704</v>
       </c>
       <c r="I6">
-        <v>281607.59792423202</v>
+        <v>264864.15815045801</v>
       </c>
       <c r="J6">
-        <v>12.5481752826931</v>
+        <v>18.4672279128377</v>
       </c>
     </row>
     <row r="7">
@@ -827,29 +926,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.70999999999999996</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F7">
-        <v>316682.08676122699</v>
+        <v>293927.06160693598</v>
       </c>
       <c r="G7">
-        <v>0.99146544912261403</v>
+        <v>0.99545446941846705</v>
       </c>
       <c r="H7">
-        <v>3202728.4607332498</v>
+        <v>4467834.8618075801</v>
       </c>
       <c r="I7">
-        <v>353706.54827769601</v>
+        <v>324179.44306484598</v>
       </c>
       <c r="J7">
-        <v>10.113386877951299</v>
+        <v>15.200488302714801</v>
       </c>
     </row>
     <row r="8">
@@ -857,29 +956,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.71999999999999997</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F8">
-        <v>391739.96637844102</v>
+        <v>355040.55532305699</v>
       </c>
       <c r="G8">
-        <v>0.98768970489180097</v>
+        <v>0.99364875207732795</v>
       </c>
       <c r="H8">
-        <v>3304479.2433209401</v>
+        <v>4574082.4366471302</v>
       </c>
       <c r="I8">
-        <v>431861.38470988203</v>
+        <v>387147.59747014899</v>
       </c>
       <c r="J8">
-        <v>8.4353896128347596</v>
+        <v>12.883267469219399</v>
       </c>
     </row>
     <row r="9">
@@ -887,29 +986,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.72999999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F9">
-        <v>473062.55172549898</v>
+        <v>419891.994491119</v>
       </c>
       <c r="G9">
-        <v>0.98307967395013696</v>
+        <v>0.99149229476552803</v>
       </c>
       <c r="H9">
-        <v>3410872.4973435798</v>
+        <v>4684264.9324149499</v>
       </c>
       <c r="I9">
-        <v>516496.78025514499</v>
+        <v>453940.328254255</v>
       </c>
       <c r="J9">
-        <v>7.2101934192474104</v>
+        <v>11.1558805451672</v>
       </c>
     </row>
     <row r="10">
@@ -917,29 +1016,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.73999999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="F10">
-        <v>561084.98982092505</v>
+        <v>488655.38541191298</v>
       </c>
       <c r="G10">
-        <v>0.97756617766973797</v>
+        <v>0.98896379414617497</v>
       </c>
       <c r="H10">
-        <v>3522194.6403085198</v>
+        <v>4798598.0298247002</v>
       </c>
       <c r="I10">
-        <v>608057.98252980202</v>
+        <v>524733.79809032101</v>
       </c>
       <c r="J10">
-        <v>6.2774708006939504</v>
+        <v>9.8200043897596796</v>
       </c>
     </row>
     <row r="11">
@@ -947,29 +1046,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.75</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F11">
-        <v>656262.38330507895</v>
+        <v>561508.96627182898</v>
       </c>
       <c r="G11">
-        <v>0.97107528449652403</v>
+        <v>0.98604096563571897</v>
       </c>
       <c r="H11">
-        <v>3638760.1066196598</v>
+        <v>4917316.4807062102</v>
       </c>
       <c r="I11">
-        <v>707009.32036783604</v>
+        <v>599708.13871399697</v>
       </c>
       <c r="J11">
-        <v>5.5446726784705902</v>
+        <v>8.7573249512915492</v>
       </c>
     </row>
     <row r="12">
@@ -977,29 +1076,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.76000000000000001</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F12">
-        <v>759067.89652229997</v>
+        <v>638634.66071599501</v>
       </c>
       <c r="G12">
-        <v>0.96352810626217</v>
+        <v>0.98270052129581897</v>
       </c>
       <c r="H12">
-        <v>3760916.3893801598</v>
+        <v>5040676.71904884</v>
       </c>
       <c r="I12">
-        <v>813831.83482699399</v>
+        <v>679046.839463374</v>
       </c>
       <c r="J12">
-        <v>4.9546508377062803</v>
+        <v>7.8928956242330601</v>
       </c>
     </row>
     <row r="13">
@@ -1007,29 +1106,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.77000000000000002</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F13">
-        <v>869989.86988801404</v>
+        <v>720217.39864989405</v>
       </c>
       <c r="G13">
-        <v>0.95484061978457302</v>
+        <v>0.97891815113109604</v>
       </c>
       <c r="H13">
-        <v>3889050.50044769</v>
+        <v>5168959.9508013604</v>
       </c>
       <c r="I13">
-        <v>929019.784192055</v>
+        <v>762935.99489618896</v>
       </c>
       <c r="J13">
-        <v>4.4702250394574001</v>
+        <v>7.1769440178632102</v>
       </c>
     </row>
     <row r="14">
@@ -1037,29 +1136,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.78000000000000003</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F14">
-        <v>989527.66401474504</v>
+        <v>806444.28797132405</v>
       </c>
       <c r="G14">
-        <v>0.94492352577668803</v>
+        <v>0.97466850857776599</v>
       </c>
       <c r="H14">
-        <v>4023597.35118658</v>
+        <v>5302475.8282530298</v>
       </c>
       <c r="I14">
-        <v>1053075.7128303901</v>
+        <v>851563.39541057101</v>
       </c>
       <c r="J14">
-        <v>4.0661797517230598</v>
+        <v>6.5751297483820403</v>
       </c>
     </row>
     <row r="15">
@@ -1067,29 +1166,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.79000000000000004</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F15">
-        <v>1118185.89007837</v>
+        <v>897503.62159785698</v>
       </c>
       <c r="G15">
-        <v>0.93368216039431196</v>
+        <v>0.96992520105760105</v>
       </c>
       <c r="H15">
-        <v>4165050.7625368699</v>
+        <v>5441566.8417793503</v>
       </c>
       <c r="I15">
-        <v>1186503.70370997</v>
+        <v>945117.44621035305</v>
       </c>
       <c r="J15">
-        <v>3.7248285812701099</v>
+        <v>6.0630026562918404</v>
       </c>
     </row>
     <row r="16">
@@ -1097,29 +1196,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.80000000000000004</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F16">
-        <v>1256466.6081173299</v>
+        <v>993583.70646751195</v>
       </c>
       <c r="G16">
-        <v>0.92101647881183801</v>
+        <v>0.96466078655339704</v>
       </c>
       <c r="H16">
-        <v>4313978.1154782204</v>
+        <v>5586613.5964751299</v>
       </c>
       <c r="I16">
-        <v>1329800.3560241901</v>
+        <v>1043785.90351213</v>
       </c>
       <c r="J16">
-        <v>3.4334204248708202</v>
+        <v>5.6226904287080304</v>
       </c>
     </row>
     <row r="17">
@@ -1127,29 +1226,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.81000000000000005</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F17">
-        <v>1404858.99398199</v>
+        <v>1094871.5061778501</v>
       </c>
       <c r="G17">
-        <v>0.90682113511000395</v>
+        <v>0.95884677722390499</v>
       </c>
       <c r="H17">
-        <v>4471040.1028179098</v>
+        <v>5738041.1862405604</v>
       </c>
       <c r="I17">
-        <v>1483442.9491216501</v>
+        <v>1147754.42385249</v>
       </c>
       <c r="J17">
-        <v>3.18255435027327</v>
+        <v>5.2408352522314097</v>
       </c>
     </row>
     <row r="18">
@@ -1157,29 +1256,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81999999999999995</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F18">
-        <v>1563825.8987449401</v>
+        <v>1201551.09818721</v>
       </c>
       <c r="G18">
-        <v>0.89098568851123405</v>
+        <v>0.95245365109929503</v>
       </c>
       <c r="H18">
-        <v>4637017.7224677</v>
+        <v>5896326.9366677403</v>
       </c>
       <c r="I18">
-        <v>1647874.1883308799</v>
+        <v>1257204.9347181199</v>
       </c>
       <c r="J18">
-        <v>2.9651751682774701</v>
+        <v>4.9072627419371404</v>
       </c>
     </row>
     <row r="19">
@@ -1187,29 +1286,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.82999999999999996</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F19">
-        <v>1733786.67588936</v>
+        <v>1313801.9625224201</v>
       </c>
       <c r="G19">
-        <v>0.87339497245015896</v>
+        <v>0.94545087285239604</v>
       </c>
       <c r="H19">
-        <v>4812849.6950639803</v>
+        <v>6062009.8653087895</v>
       </c>
       <c r="I19">
-        <v>1823482.91455863</v>
+        <v>1372313.85569206</v>
       </c>
       <c r="J19">
-        <v>2.7759180307434299</v>
+        <v>4.6140971304914897</v>
       </c>
     </row>
     <row r="20">
@@ -1217,29 +1316,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.83999999999999997</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F20">
-        <v>1915095.6855792999</v>
+        <v>1431797.1456297101</v>
       </c>
       <c r="G20">
-        <v>0.85392966956516603</v>
+        <v>0.937806924478368</v>
       </c>
       <c r="H20">
-        <v>4999685.1188455597</v>
+        <v>6235702.3101094104</v>
       </c>
       <c r="I20">
-        <v>2010580.2795875799</v>
+        <v>1493250.23378026</v>
       </c>
       <c r="J20">
-        <v>2.6106711829039502</v>
+        <v>4.3551576626219104</v>
       </c>
     </row>
     <row r="21">
@@ -1247,29 +1346,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.84999999999999998</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F21">
-        <v>2108016.11914468</v>
+        <v>1555701.3865549101</v>
       </c>
       <c r="G21">
-        <v>0.83246714101373098</v>
+        <v>0.92948934636081304</v>
       </c>
       <c r="H21">
-        <v>5198958.7747961003</v>
+        <v>6418104.3130451497</v>
       </c>
       <c r="I21">
-        <v>2209371.3198196799</v>
+        <v>1620173.91247869</v>
       </c>
       <c r="J21">
-        <v>2.46628037024003</v>
+        <v>4.1255374382984904</v>
       </c>
     </row>
     <row r="22">
@@ -1277,29 +1376,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.85999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F22">
-        <v>2312689.4753511399</v>
+        <v>1685669.3629159399</v>
       </c>
       <c r="G22">
-        <v>0.80888255923215902</v>
+        <v>0.92046478853640201</v>
       </c>
       <c r="H22">
-        <v>5412500.7358658398</v>
+        <v>6610021.5290678097</v>
       </c>
       <c r="I22">
-        <v>2419922.9903524402</v>
+        <v>1753233.9440313799</v>
       </c>
       <c r="J22">
-        <v>2.3403491015775302</v>
+        <v>3.9213037114428699</v>
       </c>
     </row>
     <row r="23">
@@ -1307,29 +1406,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.87</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F23">
-        <v>2529102.7245615898</v>
+        <v>1821844.32705581</v>
       </c>
       <c r="G23">
-        <v>0.78305038192493703</v>
+        <v>0.91069907080340495</v>
       </c>
       <c r="H23">
-        <v>5642699.0239822604</v>
+        <v>6812387.6784443296</v>
       </c>
       <c r="I23">
-        <v>2642132.4149267599</v>
+        <v>1892567.59893088</v>
       </c>
       <c r="J23">
-        <v>2.2311070915319902</v>
+        <v>3.7392808909493902</v>
       </c>
     </row>
     <row r="24">
@@ -1337,29 +1436,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.88</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F24">
-        <v>2757059.1887185602</v>
+        <v>1964357.58434593</v>
       </c>
       <c r="G24">
-        <v>0.75484616497933499</v>
+        <v>0.90015724834742605</v>
       </c>
       <c r="H24">
-        <v>5892746.2414035499</v>
+        <v>7026292.89929274</v>
       </c>
       <c r="I24">
-        <v>2875705.3667888101</v>
+        <v>2038300.55947435</v>
       </c>
       <c r="J24">
-        <v>2.1373303357126701</v>
+        <v>3.5768909669429001</v>
       </c>
     </row>
     <row r="25">
@@ -1367,29 +1466,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.89000000000000001</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F25">
-        <v>2996168.4309485001</v>
+        <v>2113329.5589002501</v>
       </c>
       <c r="G25">
-        <v>0.72414860509235701</v>
+        <v>0.88880367628900203</v>
       </c>
       <c r="H25">
-        <v>6167022.6845503403</v>
+        <v>7253019.8238299396</v>
       </c>
       <c r="I25">
-        <v>3120169.6478516702</v>
+        <v>2190549.2618701402</v>
       </c>
       <c r="J25">
-        <v>2.0583030716327402</v>
+        <v>3.4320344374515499</v>
       </c>
     </row>
     <row r="26">
@@ -1397,29 +1496,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.90000000000000002</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F26">
-        <v>3245892.3452433501</v>
+        <v>2268873.6693634102</v>
       </c>
       <c r="G26">
-        <v>0.69084143957789601</v>
+        <v>0.87660206118539596</v>
       </c>
       <c r="H26">
-        <v>6471707.9882202102</v>
+        <v>7494089.8505899301</v>
       </c>
       <c r="I26">
-        <v>3374983.3598653302</v>
+        <v>2349426.9694344699</v>
       </c>
       <c r="J26">
-        <v>1.99381473563166</v>
+        <v>3.3030000531905301</v>
       </c>
     </row>
     <row r="27">
@@ -1427,29 +1526,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.91000000000000003</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F27">
-        <v>3505738.36328744</v>
+        <v>2431105.0227621398</v>
       </c>
       <c r="G27">
-        <v>0.65481419040156197</v>
+        <v>0.86351547870397904</v>
       </c>
       <c r="H27">
-        <v>6815788.5024818601</v>
+        <v>7751322.9946477003</v>
       </c>
       <c r="I27">
-        <v>3639887.4059239002</v>
+        <v>2515056.1830654098</v>
       </c>
       <c r="J27">
-        <v>1.94418059654928</v>
+        <v>3.1883949570557402</v>
       </c>
     </row>
     <row r="28">
@@ -1457,29 +1556,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.92000000000000004</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F28">
-        <v>3775829.9825338302</v>
+        <v>2600157.2433953402</v>
       </c>
       <c r="G28">
-        <v>0.61595914533483498</v>
+        <v>0.84950632216781896</v>
       </c>
       <c r="H28">
-        <v>7212776.1395516098</v>
+        <v>8026915.9847309804</v>
       </c>
       <c r="I28">
-        <v>3915892.84823763</v>
+        <v>2687591.7158807898</v>
       </c>
       <c r="J28">
-        <v>1.9102491830713599</v>
+        <v>3.0870886770868</v>
       </c>
     </row>
     <row r="29">
@@ -1487,29 +1586,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.93000000000000005</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F29">
-        <v>4058473.2467080001</v>
+        <v>2776212.9700451298</v>
       </c>
       <c r="G29">
-        <v>0.57415779926926203</v>
+        <v>0.83453612257284504</v>
       </c>
       <c r="H29">
-        <v>7683759.4668821804</v>
+        <v>8323545.1107782098</v>
       </c>
       <c r="I29">
-        <v>4208003.2569159297</v>
+        <v>2867261.7003996498</v>
       </c>
       <c r="J29">
-        <v>1.89326355005908</v>
+        <v>2.99816519863132</v>
       </c>
     </row>
     <row r="30">
@@ -1517,29 +1616,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93999999999999995</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F30">
-        <v>4362526.8975430802</v>
+        <v>2959557.37617792</v>
       </c>
       <c r="G30">
-        <v>0.52923823502056999</v>
+        <v>0.81856514019022597</v>
       </c>
       <c r="H30">
-        <v>8263052.1685432196</v>
+        <v>8644502.9584475402</v>
       </c>
       <c r="I30">
-        <v>4533097.4745531799</v>
+        <v>3054438.9252884001</v>
       </c>
       <c r="J30">
-        <v>1.89409770131088</v>
+        <v>2.9208769622204001</v>
       </c>
     </row>
     <row r="31">
@@ -1547,29 +1646,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.94999999999999996</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F31">
-        <v>4716480.7674708199</v>
+        <v>3150670.7947302898</v>
       </c>
       <c r="G31">
-        <v>0.480848357251557</v>
+        <v>0.80155155881473905</v>
       </c>
       <c r="H31">
-        <v>9009043.1073412299</v>
+        <v>8993881.9605199806</v>
       </c>
       <c r="I31">
-        <v>4945148.31141413</v>
+        <v>3249764.0410660398</v>
       </c>
       <c r="J31">
-        <v>1.9101197590957799</v>
+        <v>2.8545927348432798</v>
       </c>
     </row>
     <row r="32">
@@ -1577,29 +1676,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.95999999999999996</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F32">
-        <v>5212549.5176872499</v>
+        <v>3350388.6511463802</v>
       </c>
       <c r="G32">
-        <v>0.42805992204091597</v>
+        <v>0.78344999374298396</v>
       </c>
       <c r="H32">
-        <v>10025016.806322999</v>
+        <v>9376823.1551502496</v>
       </c>
       <c r="I32">
-        <v>5625364.0850422801</v>
+        <v>3454358.8844584101</v>
       </c>
       <c r="J32">
-        <v>1.92324634467376</v>
+        <v>2.7987269930435801</v>
       </c>
     </row>
     <row r="33">
@@ -1607,29 +1706,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.96999999999999997</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F33">
-        <v>6154040.8396970304</v>
+        <v>3560179.3333706199</v>
       </c>
       <c r="G33">
-        <v>0.368010324164526</v>
+        <v>0.76420881151004105</v>
       </c>
       <c r="H33">
-        <v>11491567.713416601</v>
+        <v>9799856.3173425198</v>
       </c>
       <c r="I33">
-        <v>6951262.2659588596</v>
+        <v>3670199.5798045099</v>
       </c>
       <c r="J33">
-        <v>1.8673206780314899</v>
+        <v>2.7526299659923201</v>
       </c>
     </row>
     <row r="34">
@@ -1637,29 +1736,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.97999999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="F34">
-        <v>7883688.4301805301</v>
+        <v>3782633.3455201699</v>
       </c>
       <c r="G34">
-        <v>0.29380703749832399</v>
+        <v>0.74376537140773502</v>
       </c>
       <c r="H34">
-        <v>13761720.437145401</v>
+        <v>10271368.374076201</v>
       </c>
       <c r="I34">
-        <v>9020685.7446387708</v>
+        <v>3900779.9811987001</v>
       </c>
       <c r="J34">
-        <v>1.74559415418581</v>
+        <v>2.7154015300586201</v>
       </c>
     </row>
     <row r="35">
@@ -1667,29 +1766,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.98999999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F35">
-        <v>10245975.667197401</v>
+        <v>4022341.1617954602</v>
       </c>
       <c r="G35">
-        <v>0.19751308330340001</v>
+        <v>0.72203757155273296</v>
       </c>
       <c r="H35">
-        <v>18502755.129652102</v>
+        <v>10802250.740149301</v>
       </c>
       <c r="I35">
-        <v>10399542.7600177</v>
+        <v>4152318.2826962601</v>
       </c>
       <c r="J35">
-        <v>1.80585585313157</v>
+        <v>2.6855630354655302</v>
       </c>
     </row>
     <row r="36">
@@ -1697,29 +1796,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.99099999999999999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F36">
-        <v>10563559.363314399</v>
+        <v>4287508.7312175902</v>
       </c>
       <c r="G36">
-        <v>0.186411786544708</v>
+        <v>0.69890867399492496</v>
       </c>
       <c r="H36">
-        <v>19403112.059611499</v>
+        <v>11406790.054463301</v>
       </c>
       <c r="I36">
-        <v>10758407.327568701</v>
+        <v>4436014.6333310697</v>
       </c>
       <c r="J36">
-        <v>1.8367968023160299</v>
+        <v>2.6604703965754699</v>
       </c>
     </row>
     <row r="37">
@@ -1727,29 +1826,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99199999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F37">
-        <v>10975374.855655501</v>
+        <v>4593023.7727749497</v>
       </c>
       <c r="G37">
-        <v>0.174927409284067</v>
+        <v>0.67419955464662995</v>
       </c>
       <c r="H37">
-        <v>20483700.1511168</v>
+        <v>12103867.596576501</v>
       </c>
       <c r="I37">
-        <v>11257862.688145099</v>
+        <v>4772422.2260330701</v>
       </c>
       <c r="J37">
-        <v>1.86633262376106</v>
+        <v>2.6352721421391001</v>
       </c>
     </row>
     <row r="38">
@@ -1757,29 +1856,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99299999999999999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F38">
-        <v>11587667.8806876</v>
+        <v>4966493.36888937</v>
       </c>
       <c r="G38">
-        <v>0.162909873758353</v>
+        <v>0.64761660573625601</v>
       </c>
       <c r="H38">
-        <v>21801676.931541301</v>
+        <v>12918472.637747999</v>
       </c>
       <c r="I38">
-        <v>12059397.3949668</v>
+        <v>5200256.0033438699</v>
       </c>
       <c r="J38">
-        <v>1.8814551086570801</v>
+        <v>2.6011255181916901</v>
       </c>
     </row>
     <row r="39">
@@ -1787,29 +1886,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99399999999999999</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F39">
-        <v>12633519.1840811</v>
+        <v>5460646.7487009401</v>
       </c>
       <c r="G39">
-        <v>0.15003671651463099</v>
+        <v>0.61865057274284696</v>
       </c>
       <c r="H39">
-        <v>23425390.187637102</v>
+        <v>13883249.7170485</v>
       </c>
       <c r="I39">
-        <v>13433300.5918644</v>
+        <v>5791374.7060016198</v>
       </c>
       <c r="J39">
-        <v>1.8542252436798701</v>
+        <v>2.54241857346865</v>
       </c>
     </row>
     <row r="40">
@@ -1817,29 +1916,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.995</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F40">
-        <v>14329223.673748801</v>
+        <v>6162634.4526300896</v>
       </c>
       <c r="G40">
-        <v>0.13569694603045901</v>
+        <v>0.58639193957106295</v>
       </c>
       <c r="H40">
-        <v>25423808.106791601</v>
+        <v>15039231.861483799</v>
       </c>
       <c r="I40">
-        <v>15342640.1320807</v>
+        <v>6616866.3752661804</v>
       </c>
       <c r="J40">
-        <v>1.7742627713578201</v>
+        <v>2.4403900599791899</v>
       </c>
     </row>
     <row r="41">
@@ -1847,29 +1946,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.996</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F41">
-        <v>16365428.38154</v>
+        <v>7112795.5391159402</v>
       </c>
       <c r="G41">
-        <v>0.119318995086032</v>
+        <v>0.54953522143724498</v>
       </c>
       <c r="H41">
-        <v>27944100.100469299</v>
+        <v>16442959.44252</v>
       </c>
       <c r="I41">
-        <v>17292571.102839898</v>
+        <v>7690123.4866182599</v>
       </c>
       <c r="J41">
-        <v>1.7075080131718401</v>
+        <v>2.3117435826875701</v>
       </c>
     </row>
     <row r="42">
@@ -1877,29 +1976,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.997</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F42">
-        <v>18135264.798952699</v>
+        <v>8306458.8686320297</v>
       </c>
       <c r="G42">
-        <v>0.10085953316897101</v>
+        <v>0.506700335905928</v>
       </c>
       <c r="H42">
-        <v>31494609.766345799</v>
+        <v>18193526.633700401</v>
       </c>
       <c r="I42">
-        <v>19189944.316910401</v>
+        <v>8998538.2723796796</v>
       </c>
       <c r="J42">
-        <v>1.7366501187324599</v>
+        <v>2.19028673005355</v>
       </c>
     </row>
     <row r="43">
@@ -1907,29 +2006,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.998</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F43">
-        <v>21104269.241194598</v>
+        <v>9730665.1117675509</v>
       </c>
       <c r="G43">
-        <v>0.080374664597266901</v>
+        <v>0.45657742727939199</v>
       </c>
       <c r="H43">
-        <v>37646942.491063498</v>
+        <v>20492273.724030498</v>
       </c>
       <c r="I43">
-        <v>25311451.718428299</v>
+        <v>10588439.031670099</v>
       </c>
       <c r="J43">
-        <v>1.78385435007521</v>
+        <v>2.10594789653676</v>
       </c>
     </row>
     <row r="44">
@@ -1937,29 +2036,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.999</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F44">
-        <v>28866429.699364401</v>
+        <v>11571412.045735201</v>
       </c>
       <c r="G44">
-        <v>0.053355213511411703</v>
+        <v>0.39759858582565599</v>
       </c>
       <c r="H44">
-        <v>49982433.263698801</v>
+        <v>23793551.954817299</v>
       </c>
       <c r="I44">
-        <v>29580151.2093817</v>
+        <v>13235597.085533399</v>
       </c>
       <c r="J44">
-        <v>1.7315072831746601</v>
+        <v>2.0562358215898699</v>
       </c>
     </row>
     <row r="45">
@@ -1967,29 +2066,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.99909999999999999</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F45">
-        <v>30438224.874299102</v>
+        <v>15510759.5451949</v>
       </c>
       <c r="G45">
-        <v>0.0501975935629198</v>
+        <v>0.32387476499443002</v>
       </c>
       <c r="H45">
-        <v>52249353.491956003</v>
+        <v>29072529.389459301</v>
       </c>
       <c r="I45">
-        <v>31555545.518709999</v>
+        <v>19126382.423660502</v>
       </c>
       <c r="J45">
-        <v>1.71657032260358</v>
+        <v>1.87434595351365</v>
       </c>
     </row>
     <row r="46">
@@ -1997,29 +2096,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99919999999999998</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F46">
-        <v>32776602.5064939</v>
+        <v>23597203.119523801</v>
       </c>
       <c r="G46">
-        <v>0.046829104358448698</v>
+        <v>0.21733858216572599</v>
       </c>
       <c r="H46">
-        <v>54836079.488611303</v>
+        <v>39018676.3552581</v>
       </c>
       <c r="I46">
-        <v>34101315.585557401</v>
+        <v>24351374.045350902</v>
       </c>
       <c r="J46">
-        <v>1.6730251244846699</v>
+        <v>1.6535297067886401</v>
       </c>
     </row>
     <row r="47">
@@ -2027,29 +2126,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99929999999999997</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F47">
-        <v>35399761.968185201</v>
+        <v>25167885.075909901</v>
       </c>
       <c r="G47">
-        <v>0.043188859465832098</v>
+        <v>0.203774582555343</v>
       </c>
       <c r="H47">
-        <v>57798188.617618501</v>
+        <v>40648376.611914501</v>
       </c>
       <c r="I47">
-        <v>36366568.4703582</v>
+        <v>26091507.131027699</v>
       </c>
       <c r="J47">
-        <v>1.6327281711544701</v>
+        <v>1.6150890902955599</v>
       </c>
     </row>
     <row r="48">
@@ -2057,29 +2156,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99939999999999996</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F48">
-        <v>37001213.963934198</v>
+        <v>27047347.1024899</v>
       </c>
       <c r="G48">
-        <v>0.039306803513941703</v>
+        <v>0.18924130850269699</v>
       </c>
       <c r="H48">
-        <v>61370125.308828004</v>
+        <v>42467985.297025301</v>
       </c>
       <c r="I48">
-        <v>38251419.721446604</v>
+        <v>27961799.6739089</v>
       </c>
       <c r="J48">
-        <v>1.65859761705783</v>
+        <v>1.57013496133659</v>
       </c>
     </row>
     <row r="49">
@@ -2087,29 +2186,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99950000000000006</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F49">
-        <v>39501625.478961401</v>
+        <v>28768838.205531001</v>
       </c>
       <c r="G49">
-        <v>0.035223543590230701</v>
+        <v>0.17366625967070201</v>
       </c>
       <c r="H49">
-        <v>65993866.426303104</v>
+        <v>44540297.528899103</v>
       </c>
       <c r="I49">
-        <v>41485798.4592328</v>
+        <v>29269480.580855999</v>
       </c>
       <c r="J49">
-        <v>1.6706620455771299</v>
+        <v>1.5482132858717901</v>
       </c>
     </row>
     <row r="50">
@@ -2117,29 +2216,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99960000000000004</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F50">
-        <v>45505332.756043099</v>
+        <v>29753262.4731654</v>
       </c>
       <c r="G50">
-        <v>0.0307950204272915</v>
+        <v>0.157362817308252</v>
       </c>
       <c r="H50">
-        <v>72120883.418069094</v>
+        <v>47085433.686906204</v>
       </c>
       <c r="I50">
-        <v>49088405.178898104</v>
+        <v>30682553.9672837</v>
       </c>
       <c r="J50">
-        <v>1.5848886064565999</v>
+        <v>1.5825301083998</v>
       </c>
     </row>
     <row r="51">
@@ -2147,29 +2246,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99970000000000003</v>
+        <v>0.995</v>
       </c>
       <c r="F51">
-        <v>50703550.284506001</v>
+        <v>32050665.381609399</v>
       </c>
       <c r="G51">
-        <v>0.025554934724702098</v>
+        <v>0.14027227657397101</v>
       </c>
       <c r="H51">
-        <v>79798376.164468095</v>
+        <v>50366009.630830698</v>
       </c>
       <c r="I51">
-        <v>62471388.395031102</v>
+        <v>34303705.8203924</v>
       </c>
       <c r="J51">
-        <v>1.57382226129544</v>
+        <v>1.5714497353222101</v>
       </c>
     </row>
     <row r="52">
@@ -2177,29 +2276,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99980000000000002</v>
+        <v>0.996</v>
       </c>
       <c r="F52">
-        <v>71637976.805760399</v>
+        <v>36608904.289027698</v>
       </c>
       <c r="G52">
-        <v>0.018886243249467902</v>
+        <v>0.12116471198579</v>
       </c>
       <c r="H52">
-        <v>88461870.0491862</v>
+        <v>54381585.583440296</v>
       </c>
       <c r="I52">
-        <v>79474152.214759797</v>
+        <v>37272684.876520798</v>
       </c>
       <c r="J52">
-        <v>1.2348460131564301</v>
+        <v>1.48547427571438</v>
       </c>
     </row>
     <row r="53">
@@ -2207,29 +2306,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99990000000000001</v>
+        <v>0.997</v>
       </c>
       <c r="F53">
-        <v>87700262.170229495</v>
+        <v>37460920.090217501</v>
       </c>
       <c r="G53">
-        <v>0.010402541910469401</v>
+        <v>0.10040339140480301</v>
       </c>
       <c r="H53">
-        <v>97449587.883612499</v>
+        <v>60084552.485746801</v>
       </c>
       <c r="I53">
-        <v>88577808.839400306</v>
+        <v>40863418.566807903</v>
       </c>
       <c r="J53">
-        <v>1.1111664375011701</v>
+        <v>1.60392623408727</v>
       </c>
     </row>
     <row r="54">
@@ -2237,29 +2336,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990999999999997</v>
+        <v>0.998</v>
       </c>
       <c r="F54">
-        <v>89461938.4850398</v>
+        <v>47607880.719602101</v>
       </c>
       <c r="G54">
-        <v>0.0094569921253991607</v>
+        <v>0.077641990241696004</v>
       </c>
       <c r="H54">
-        <v>98435341.110742405</v>
+        <v>69695119.445216298</v>
       </c>
       <c r="I54">
-        <v>90360139.301550806</v>
+        <v>50606372.857978202</v>
       </c>
       <c r="J54">
-        <v>1.1003041380240499</v>
+        <v>1.4639408096256601</v>
       </c>
     </row>
     <row r="55">
@@ -2267,29 +2366,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99992000000000003</v>
+        <v>0.999</v>
       </c>
       <c r="F55">
-        <v>91265875.232718095</v>
+        <v>62026229.463046901</v>
       </c>
       <c r="G55">
-        <v>0.0084924163313602492</v>
+        <v>0.049453649803487099</v>
       </c>
       <c r="H55">
-        <v>99444741.336886495</v>
+        <v>88783866.032454401</v>
       </c>
       <c r="I55">
-        <v>92187850.329891294</v>
+        <v>63084293.333721504</v>
       </c>
       <c r="J55">
-        <v>1.08961581843502</v>
+        <v>1.4313922803472801</v>
       </c>
     </row>
     <row r="56">
@@ -2297,29 +2396,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992999999999999</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="F56">
-        <v>93118598.127311006</v>
+        <v>64189544.488208003</v>
       </c>
       <c r="G56">
-        <v>0.0075083301001854699</v>
+        <v>0.045939781022997603</v>
       </c>
       <c r="H56">
-        <v>100481440.052178</v>
+        <v>91639374.110090896</v>
       </c>
       <c r="I56">
-        <v>94068452.433990806</v>
+        <v>65401600.495548204</v>
       </c>
       <c r="J56">
-        <v>1.07906950998983</v>
+        <v>1.42763708390119</v>
       </c>
     </row>
     <row r="57">
@@ -2327,29 +2426,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99994000000000005</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="F57">
-        <v>95028746.3069181</v>
+        <v>66674241.096651897</v>
       </c>
       <c r="G57">
-        <v>0.0065041688306047597</v>
+        <v>0.042296835528473103</v>
       </c>
       <c r="H57">
-        <v>101550271.321869</v>
+        <v>94919095.811908394</v>
       </c>
       <c r="I57">
-        <v>96012097.747026205</v>
+        <v>68086139.188632905</v>
       </c>
       <c r="J57">
-        <v>1.06862686574743</v>
+        <v>1.42362468999553</v>
       </c>
     </row>
     <row r="58">
@@ -2357,29 +2456,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99995000000000001</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F58">
-        <v>97008241.569154099</v>
+        <v>69578309.637389794</v>
       </c>
       <c r="G58">
-        <v>0.0054792595493823896</v>
+        <v>0.038504358094932398</v>
       </c>
       <c r="H58">
-        <v>102657906.036847</v>
+        <v>98752375.329518497</v>
       </c>
       <c r="I58">
-        <v>98033197.455348596</v>
+        <v>71258682.354681507</v>
       </c>
       <c r="J58">
-        <v>1.0582390153280401</v>
+        <v>1.41929828195267</v>
       </c>
     </row>
     <row r="59">
@@ -2387,29 +2486,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995999999999996</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="F59">
-        <v>99074488.817107707</v>
+        <v>73049817.888141006</v>
       </c>
       <c r="G59">
-        <v>0.0044327754468943799</v>
+        <v>0.034535166303556998</v>
       </c>
       <c r="H59">
-        <v>103814083.18221401</v>
+        <v>103334657.49199</v>
       </c>
       <c r="I59">
-        <v>100153664.51586901</v>
+        <v>75107596.414152101</v>
       </c>
       <c r="J59">
-        <v>1.04783869613353</v>
+        <v>1.4145778932703701</v>
       </c>
     </row>
     <row r="60">
@@ -2417,29 +2516,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99997000000000003</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F60">
-        <v>101255045.670913</v>
+        <v>77326746.804857701</v>
       </c>
       <c r="G60">
-        <v>0.00336365579720109</v>
+        <v>0.0303515855060177</v>
       </c>
       <c r="H60">
-        <v>105034222.737652</v>
+        <v>108980069.70755699</v>
       </c>
       <c r="I60">
-        <v>102410497.199104</v>
+        <v>79949043.923556507</v>
       </c>
       <c r="J60">
-        <v>1.03732334563377</v>
+        <v>1.40934507412525</v>
       </c>
     </row>
     <row r="61">
@@ -2447,29 +2546,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997999999999998</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="F61">
-        <v>103599524.49717601</v>
+        <v>82825177.606559798</v>
       </c>
       <c r="G61">
-        <v>0.0022704449254782599</v>
+        <v>0.025898330430514</v>
       </c>
       <c r="H61">
-        <v>106346085.506935</v>
+        <v>116237826.15355501</v>
       </c>
       <c r="I61">
-        <v>104878808.28318501</v>
+        <v>86371904.635084003</v>
       </c>
       <c r="J61">
-        <v>1.02651132833948</v>
+        <v>1.4034117343607</v>
       </c>
     </row>
     <row r="62">
@@ -2477,29 +2576,359 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D62"/>
       <c r="E62">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F62">
+        <v>90367255.934319496</v>
+      </c>
+      <c r="G62">
+        <v>0.021087314515610599</v>
+      </c>
+      <c r="H62">
+        <v>126193133.32639</v>
+      </c>
+      <c r="I62">
+        <v>95665163.260484904</v>
+      </c>
+      <c r="J62">
+        <v>1.3964475519552</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F63">
+        <v>101931155.34130301</v>
+      </c>
+      <c r="G63">
+        <v>0.0157586532467405</v>
+      </c>
+      <c r="H63">
+        <v>141457118.35934299</v>
+      </c>
+      <c r="I63">
+        <v>111623601.580072</v>
+      </c>
+      <c r="J63">
+        <v>1.38777116658486</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F64">
+        <v>124532840.697207</v>
+      </c>
+      <c r="G64">
+        <v>0.0095410883342975893</v>
+      </c>
+      <c r="H64">
+        <v>171290635.13861299</v>
+      </c>
+      <c r="I64">
+        <v>126381760.83041599</v>
+      </c>
+      <c r="J64">
+        <v>1.3754655734152399</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F65">
+        <v>128313138.669176</v>
+      </c>
+      <c r="G65">
+        <v>0.00883712717323</v>
+      </c>
+      <c r="H65">
+        <v>176280510.06172001</v>
+      </c>
+      <c r="I65">
+        <v>130431153.296343</v>
+      </c>
+      <c r="J65">
+        <v>1.37383055149338</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F66">
+        <v>132655036.839626</v>
+      </c>
+      <c r="G66">
+        <v>0.0081106104234192795</v>
+      </c>
+      <c r="H66">
+        <v>182011679.65735999</v>
+      </c>
+      <c r="I66">
+        <v>135122266.73066899</v>
+      </c>
+      <c r="J66">
+        <v>1.3720676123094</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F67">
+        <v>137729769.03879201</v>
+      </c>
+      <c r="G67">
+        <v>0.0073579636241514297</v>
+      </c>
+      <c r="H67">
+        <v>188710167.21836001</v>
+      </c>
+      <c r="I67">
+        <v>140666146.54342499</v>
+      </c>
+      <c r="J67">
+        <v>1.3701479973091999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F68">
+        <v>143796077.20350701</v>
+      </c>
+      <c r="G68">
+        <v>0.0065744367671670603</v>
+      </c>
+      <c r="H68">
+        <v>196717503.997471</v>
+      </c>
+      <c r="I68">
+        <v>147391954.779475</v>
+      </c>
+      <c r="J68">
+        <v>1.3680310883520601</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F69">
+        <v>151269822.599922</v>
+      </c>
+      <c r="G69">
+        <v>0.0057534463731579999</v>
+      </c>
+      <c r="H69">
+        <v>206582613.84113601</v>
+      </c>
+      <c r="I69">
+        <v>155852171.617255</v>
+      </c>
+      <c r="J69">
+        <v>1.3656564825061299</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F70">
+        <v>160878088.87965</v>
+      </c>
+      <c r="G70">
+        <v>0.0048853315837637298</v>
+      </c>
+      <c r="H70">
+        <v>219265224.397037</v>
+      </c>
+      <c r="I70">
+        <v>167075838.554131</v>
+      </c>
+      <c r="J70">
+        <v>1.36292782891687</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F71">
+        <v>174057539.43361899</v>
+      </c>
+      <c r="G71">
+        <v>0.0039546996593302196</v>
+      </c>
+      <c r="H71">
+        <v>236661686.34453899</v>
+      </c>
+      <c r="I71">
+        <v>183315399.74893299</v>
+      </c>
+      <c r="J71">
+        <v>1.35967500813026</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F72">
+        <v>194264945.64501899</v>
+      </c>
+      <c r="G72">
+        <v>0.0029336114832966098</v>
+      </c>
+      <c r="H72">
+        <v>263334829.64249301</v>
+      </c>
+      <c r="I72">
+        <v>211202069.657745</v>
+      </c>
+      <c r="J72">
+        <v>1.3555447626855299</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F62">
-        <v>106221750.284697</v>
-      </c>
-      <c r="G62">
-        <v>0.00115088534357002</v>
-      </c>
-      <c r="H62">
-        <v>107813362.73066799</v>
-      </c>
-      <c r="I62">
-        <v>107813362.730666</v>
-      </c>
-      <c r="J62">
-        <v>1.0149838657497701</v>
+      <c r="F73">
+        <v>233760397.91151199</v>
+      </c>
+      <c r="G73">
+        <v>0.0017571913005170301</v>
+      </c>
+      <c r="H73">
+        <v>315467589.62667298</v>
+      </c>
+      <c r="I73">
+        <v>315467589.626665</v>
+      </c>
+      <c r="J73">
+        <v>1.3495339349400399</v>
       </c>
     </row>
   </sheetData>
